--- a/xlsx/station/station_kenting.xlsx
+++ b/xlsx/station/station_kenting.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\Analysis\2022_OCA_final\xlsx\station\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD9EEB85-7105-4103-9DDE-A15FEC99889F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD13B589-E7D5-4670-A44B-B46C68702538}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="13635" windowHeight="8055" xr2:uid="{A2E24AF7-537D-4172-B12B-E45F36BC54D1}"/>
+    <workbookView xWindow="1980" yWindow="0" windowWidth="13635" windowHeight="8055" xr2:uid="{A2E24AF7-537D-4172-B12B-E45F36BC54D1}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Station_zh</t>
   </si>
@@ -51,12 +51,6 @@
     <t>TRM90</t>
   </si>
   <si>
-    <t>Abbr</t>
-  </si>
-  <si>
-    <t>MBT</t>
-  </si>
-  <si>
     <t>紅柴坑</t>
   </si>
   <si>
@@ -66,26 +60,128 @@
     <t>TRM83</t>
   </si>
   <si>
-    <t>HCK</t>
-  </si>
-  <si>
     <t>萬里桐</t>
   </si>
   <si>
-    <t>Wanlitung</t>
-  </si>
-  <si>
     <t>TRM81</t>
   </si>
   <si>
-    <t>WLT</t>
+    <t>跳石</t>
+  </si>
+  <si>
+    <t>香蕉灣 I</t>
+  </si>
+  <si>
+    <t>佳樂水</t>
+  </si>
+  <si>
+    <t>紅柴</t>
+  </si>
+  <si>
+    <t>後壁湖</t>
+  </si>
+  <si>
+    <t>頂白砂</t>
+  </si>
+  <si>
+    <t>電廠出水口</t>
+  </si>
+  <si>
+    <t>雷打石</t>
+  </si>
+  <si>
+    <t>小灣</t>
+  </si>
+  <si>
+    <t>香蕉灣 II</t>
+  </si>
+  <si>
+    <t>龍坑生態保護區</t>
+  </si>
+  <si>
+    <t>七星岩</t>
+  </si>
+  <si>
+    <t>Tiaoshi</t>
+  </si>
+  <si>
+    <t>Hung Chai</t>
+  </si>
+  <si>
+    <t>Dingbaisha</t>
+  </si>
+  <si>
+    <t>Outlet</t>
+  </si>
+  <si>
+    <t>Leidashih</t>
+  </si>
+  <si>
+    <t>Xiaowan</t>
+  </si>
+  <si>
+    <t>Longkeng</t>
+  </si>
+  <si>
+    <t>Qixingyan</t>
+  </si>
+  <si>
+    <t>TRM78</t>
+  </si>
+  <si>
+    <t>TRM79</t>
+  </si>
+  <si>
+    <t>TRM80</t>
+  </si>
+  <si>
+    <t>TRM82</t>
+  </si>
+  <si>
+    <t>TRM84</t>
+  </si>
+  <si>
+    <t>TRM85</t>
+  </si>
+  <si>
+    <t>TRM86</t>
+  </si>
+  <si>
+    <t>TRM87</t>
+  </si>
+  <si>
+    <t>TRM88</t>
+  </si>
+  <si>
+    <t>TRM89</t>
+  </si>
+  <si>
+    <t>TRM91</t>
+  </si>
+  <si>
+    <t>TRM92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jialeshuei </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wanlitung </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Houbihu </t>
+  </si>
+  <si>
+    <t>Siangjiaowan 1</t>
+  </si>
+  <si>
+    <t>Banana Bay 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -100,6 +196,16 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="BiauKai"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="BiauKai"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,10 +229,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -442,15 +556,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E33AE6D6-82E0-408D-B676-6EA5EC267924}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -460,119 +574,345 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="2">
+        <v>21.953375999999999</v>
+      </c>
+      <c r="E2" s="2">
+        <v>120.769226</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30">
+      <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="2">
+        <v>21.924626</v>
+      </c>
+      <c r="E3" s="2">
+        <v>120.829325</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30">
+      <c r="A4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="2">
+        <v>21.997260000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>120.873188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
+        <v>21.995349999999998</v>
+      </c>
+      <c r="E5" s="2">
+        <v>120.700647</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2">
+        <v>21.976483999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>120.714387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="30">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
+      <c r="B7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>21.965385000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>120.71186400000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="2">
+        <v>21.942488000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>120.752944</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30">
+      <c r="A9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2">
+        <v>21.942043000000002</v>
+      </c>
+      <c r="E9" s="2">
+        <v>120.709931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="30">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="2">
+        <v>21.930776999999999</v>
+      </c>
+      <c r="E10" s="2">
+        <v>120.74496600000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="2">
+        <v>21.929179000000001</v>
+      </c>
+      <c r="E11" s="2">
+        <v>120.74435699999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="2">
+        <v>21.936339</v>
+      </c>
+      <c r="E12" s="2">
+        <v>120.80589999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="30">
+      <c r="A13" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="2">
+        <v>21.923168</v>
+      </c>
+      <c r="E13" s="2">
+        <v>120.83183099999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B14" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="1">
-        <v>21.917000000000002</v>
-      </c>
-      <c r="F2">
-        <v>120.738</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1">
-        <v>21.965</v>
-      </c>
-      <c r="F3">
-        <v>120.71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="1">
-        <v>21.995000000000001</v>
-      </c>
-      <c r="F4">
-        <v>120.70399999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="D14" s="2">
+        <v>21.918296000000002</v>
+      </c>
+      <c r="E14" s="2">
+        <v>120.73564</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="2">
+        <v>21.907240999999999</v>
+      </c>
+      <c r="E15" s="2">
+        <v>120.86246800000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30">
+      <c r="A16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="2">
+        <v>21.759668000000001</v>
+      </c>
+      <c r="E16" s="2">
+        <v>120.82647799999999</v>
+      </c>
+    </row>
+    <row r="18" spans="7:9">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="7:9">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="7:9">
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="7:9">
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="7:9">
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="7:9">
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="7:9">
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="7:9">
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="7:9">
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="7:9">
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="7:9">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="7:9">
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="7:9">
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="7:9">
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+    </row>
+    <row r="32" spans="7:9">
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>